--- a/Training/序号_于子源_ 实训日志.xlsx
+++ b/Training/序号_于子源_ 实训日志.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Desktop\review\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C08ED82-48E7-47AF-8B02-9E0E40B0F0CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295C41E1-1BE5-42DB-BE1C-B03B71719DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10896" yWindow="744" windowWidth="18972" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4068" yWindow="1116" windowWidth="18972" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.20-7.24" sheetId="2" r:id="rId1"/>
@@ -24,12 +24,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">自行修改时间段1!$A$1:$Y$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">自行修改时间段2!$A$1:$Y$39</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t>青岛英谷教育_学生实训日志</t>
   </si>
@@ -227,6 +235,26 @@
     <t>学习了日语输入法的使用</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>了解了动词分类</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习了动词相关习题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了动词变形</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>明白了自动词他动词的区别</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -893,7 +921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,6 +1003,21 @@
     <xf numFmtId="56" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1011,15 +1054,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1032,21 +1069,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,6 +1160,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1665,8 +1699,8 @@
   </sheetPr>
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:Y35"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1754,33 +1788,33 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="48"/>
       <c r="Z7" s="15"/>
     </row>
     <row r="8" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1829,29 +1863,29 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
       <c r="S9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="47"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="49"/>
     </row>
     <row r="10" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
@@ -1879,12 +1913,12 @@
       <c r="S10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="40"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="44"/>
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
@@ -1912,12 +1946,12 @@
       <c r="S11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="44"/>
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
@@ -1928,29 +1962,29 @@
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
       <c r="S12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="42"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="45"/>
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -1963,29 +1997,29 @@
       <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
       <c r="S13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="47"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="49"/>
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
@@ -1996,29 +2030,29 @@
       <c r="F14" s="6">
         <v>2</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
       <c r="S14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="40"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="44"/>
     </row>
     <row r="15" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
@@ -2029,29 +2063,29 @@
       <c r="F15" s="6">
         <v>3</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
       <c r="S15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="40"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="44"/>
     </row>
     <row r="16" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
@@ -2062,29 +2096,29 @@
       <c r="F16" s="7">
         <v>4</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
       <c r="S16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="42"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="45"/>
     </row>
     <row r="17" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -2097,29 +2131,29 @@
       <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
       <c r="S17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="47"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="49"/>
     </row>
     <row r="18" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
@@ -2130,29 +2164,29 @@
       <c r="F18" s="6">
         <v>2</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
       <c r="S18" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="40"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="44"/>
     </row>
     <row r="19" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -2163,29 +2197,29 @@
       <c r="F19" s="6">
         <v>3</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
       <c r="S19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="40"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="44"/>
     </row>
     <row r="20" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
@@ -2196,29 +2230,29 @@
       <c r="F20" s="7">
         <v>4</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
       <c r="S20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="42"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="45"/>
     </row>
     <row r="21" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -2231,29 +2265,29 @@
       <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
       <c r="S21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="47"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="49"/>
     </row>
     <row r="22" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
@@ -2264,29 +2298,29 @@
       <c r="F22" s="6">
         <v>2</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
       <c r="S22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="40"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="44"/>
     </row>
     <row r="23" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
@@ -2297,29 +2331,29 @@
       <c r="F23" s="6">
         <v>3</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
       <c r="S23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="40"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="44"/>
     </row>
     <row r="24" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
@@ -2330,29 +2364,29 @@
       <c r="F24" s="7">
         <v>4</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
       <c r="S24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="42"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="45"/>
     </row>
     <row r="25" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
@@ -2365,25 +2399,29 @@
       <c r="F25" s="5">
         <v>5</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="47"/>
+      <c r="G25" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="49"/>
     </row>
     <row r="26" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
@@ -2394,25 +2432,29 @@
       <c r="F26" s="6">
         <v>6</v>
       </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="40"/>
+      <c r="G26" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="44"/>
     </row>
     <row r="27" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
@@ -2423,25 +2465,29 @@
       <c r="F27" s="6">
         <v>7</v>
       </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="40"/>
+      <c r="G27" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="44"/>
     </row>
     <row r="28" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
@@ -2452,25 +2498,29 @@
       <c r="F28" s="7">
         <v>8</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="42"/>
+      <c r="G28" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="45"/>
     </row>
     <row r="29" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -2498,260 +2548,260 @@
       <c r="Y29" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="45"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="48"/>
       <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="38"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="43"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="32"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="37"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="32"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="37"/>
     </row>
     <row r="35" spans="1:25" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="37"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="31" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="37"/>
     </row>
     <row r="37" spans="1:25" ht="127.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="32"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="37"/>
     </row>
     <row r="39" spans="1:25" ht="67.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="34"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -2926,33 +2976,33 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="48"/>
       <c r="Z7" s="15"/>
     </row>
     <row r="8" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3001,25 +3051,25 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="47"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="49"/>
     </row>
     <row r="10" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
@@ -3043,12 +3093,12 @@
       <c r="Q10" s="71"/>
       <c r="R10" s="72"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="40"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="44"/>
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
@@ -3072,12 +3122,12 @@
       <c r="Q11" s="71"/>
       <c r="R11" s="72"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="44"/>
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
@@ -3101,12 +3151,12 @@
       <c r="Q12" s="65"/>
       <c r="R12" s="66"/>
       <c r="S12" s="13"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="42"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="45"/>
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -3132,12 +3182,12 @@
       <c r="Q13" s="77"/>
       <c r="R13" s="78"/>
       <c r="S13" s="14"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="47"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="49"/>
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
@@ -3161,12 +3211,12 @@
       <c r="Q14" s="71"/>
       <c r="R14" s="72"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="40"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="44"/>
     </row>
     <row r="15" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
@@ -3190,12 +3240,12 @@
       <c r="Q15" s="71"/>
       <c r="R15" s="72"/>
       <c r="S15" s="12"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="40"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="44"/>
     </row>
     <row r="16" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
@@ -3219,12 +3269,12 @@
       <c r="Q16" s="65"/>
       <c r="R16" s="66"/>
       <c r="S16" s="13"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="42"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="45"/>
     </row>
     <row r="17" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -3250,12 +3300,12 @@
       <c r="Q17" s="77"/>
       <c r="R17" s="78"/>
       <c r="S17" s="14"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="47"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="49"/>
     </row>
     <row r="18" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
@@ -3279,12 +3329,12 @@
       <c r="Q18" s="71"/>
       <c r="R18" s="72"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="40"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="44"/>
     </row>
     <row r="19" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -3308,12 +3358,12 @@
       <c r="Q19" s="74"/>
       <c r="R19" s="75"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="40"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="44"/>
     </row>
     <row r="20" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
@@ -3337,12 +3387,12 @@
       <c r="Q20" s="65"/>
       <c r="R20" s="66"/>
       <c r="S20" s="13"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="42"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="45"/>
     </row>
     <row r="21" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -3368,12 +3418,12 @@
       <c r="Q21" s="68"/>
       <c r="R21" s="69"/>
       <c r="S21" s="14"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="47"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="49"/>
     </row>
     <row r="22" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
@@ -3397,12 +3447,12 @@
       <c r="Q22" s="71"/>
       <c r="R22" s="72"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="40"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="44"/>
     </row>
     <row r="23" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
@@ -3426,12 +3476,12 @@
       <c r="Q23" s="71"/>
       <c r="R23" s="72"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="40"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="44"/>
     </row>
     <row r="24" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
@@ -3455,12 +3505,12 @@
       <c r="Q24" s="65"/>
       <c r="R24" s="66"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="42"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="45"/>
     </row>
     <row r="25" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
@@ -3486,12 +3536,12 @@
       <c r="Q25" s="68"/>
       <c r="R25" s="69"/>
       <c r="S25" s="14"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="47"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="49"/>
     </row>
     <row r="26" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
@@ -3502,25 +3552,25 @@
       <c r="F26" s="6">
         <v>6</v>
       </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="40"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="44"/>
     </row>
     <row r="27" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
@@ -3531,25 +3581,25 @@
       <c r="F27" s="6">
         <v>7</v>
       </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="40"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="44"/>
     </row>
     <row r="28" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
@@ -3560,25 +3610,25 @@
       <c r="F28" s="7">
         <v>8</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="42"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="45"/>
     </row>
     <row r="29" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -3606,256 +3656,256 @@
       <c r="Y29" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="45"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="48"/>
       <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="38"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="43"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="32"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="37"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="32"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="37"/>
     </row>
     <row r="35" spans="1:25" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="37"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="37"/>
     </row>
     <row r="37" spans="1:25" ht="127.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="32"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="37"/>
     </row>
     <row r="39" spans="1:25" ht="67.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="34"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -4030,33 +4080,33 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="48"/>
       <c r="Z7" s="15"/>
     </row>
     <row r="8" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4105,25 +4155,25 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="47"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="49"/>
     </row>
     <row r="10" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
@@ -4134,25 +4184,25 @@
       <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="40"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="44"/>
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
@@ -4163,25 +4213,25 @@
       <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="44"/>
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
@@ -4192,25 +4242,25 @@
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
       <c r="S12" s="13"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="42"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="45"/>
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -4223,25 +4273,25 @@
       <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
       <c r="S13" s="14"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="47"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="49"/>
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
@@ -4252,25 +4302,25 @@
       <c r="F14" s="6">
         <v>2</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="40"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="44"/>
     </row>
     <row r="15" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
@@ -4281,25 +4331,25 @@
       <c r="F15" s="6">
         <v>3</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
       <c r="S15" s="12"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="40"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="44"/>
     </row>
     <row r="16" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
@@ -4310,25 +4360,25 @@
       <c r="F16" s="7">
         <v>4</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
       <c r="S16" s="13"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="42"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="45"/>
     </row>
     <row r="17" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -4341,25 +4391,25 @@
       <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
       <c r="S17" s="14"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="47"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="49"/>
     </row>
     <row r="18" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
@@ -4370,25 +4420,25 @@
       <c r="F18" s="6">
         <v>2</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="40"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="44"/>
     </row>
     <row r="19" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -4399,25 +4449,25 @@
       <c r="F19" s="6">
         <v>3</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="40"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="44"/>
     </row>
     <row r="20" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
@@ -4428,25 +4478,25 @@
       <c r="F20" s="7">
         <v>4</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
       <c r="S20" s="13"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="42"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="45"/>
     </row>
     <row r="21" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -4459,25 +4509,25 @@
       <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
       <c r="S21" s="14"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="47"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="49"/>
     </row>
     <row r="22" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
@@ -4488,25 +4538,25 @@
       <c r="F22" s="6">
         <v>2</v>
       </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="40"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="44"/>
     </row>
     <row r="23" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
@@ -4517,25 +4567,25 @@
       <c r="F23" s="6">
         <v>3</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="40"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="44"/>
     </row>
     <row r="24" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
@@ -4546,25 +4596,25 @@
       <c r="F24" s="7">
         <v>4</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="42"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="45"/>
     </row>
     <row r="25" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
@@ -4577,25 +4627,25 @@
       <c r="F25" s="5">
         <v>5</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
       <c r="S25" s="14"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="47"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="49"/>
     </row>
     <row r="26" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
@@ -4606,25 +4656,25 @@
       <c r="F26" s="6">
         <v>6</v>
       </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="40"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="44"/>
     </row>
     <row r="27" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
@@ -4635,25 +4685,25 @@
       <c r="F27" s="6">
         <v>7</v>
       </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="40"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="44"/>
     </row>
     <row r="28" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
@@ -4664,25 +4714,25 @@
       <c r="F28" s="7">
         <v>8</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="42"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="45"/>
     </row>
     <row r="29" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -4710,256 +4760,256 @@
       <c r="Y29" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="45"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="48"/>
       <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="38"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="43"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="32"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="37"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="32"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="37"/>
     </row>
     <row r="35" spans="1:25" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="37"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="37"/>
     </row>
     <row r="37" spans="1:25" ht="127.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="32"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="37"/>
     </row>
     <row r="39" spans="1:25" ht="67.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="34"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -5138,33 +5188,33 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="48"/>
       <c r="Z7" s="15"/>
     </row>
     <row r="8" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5213,25 +5263,25 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="47"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="49"/>
     </row>
     <row r="10" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
@@ -5255,12 +5305,12 @@
       <c r="Q10" s="52"/>
       <c r="R10" s="52"/>
       <c r="S10" s="10"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="40"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="44"/>
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
@@ -5284,12 +5334,12 @@
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
       <c r="S11" s="10"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="44"/>
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
@@ -5313,12 +5363,12 @@
       <c r="Q12" s="79"/>
       <c r="R12" s="79"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="42"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="45"/>
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -5331,25 +5381,25 @@
       <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="47"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="49"/>
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
@@ -5373,12 +5423,12 @@
       <c r="Q14" s="52"/>
       <c r="R14" s="52"/>
       <c r="S14" s="10"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="40"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="44"/>
     </row>
     <row r="15" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
@@ -5402,12 +5452,12 @@
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
       <c r="S15" s="10"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="40"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="44"/>
     </row>
     <row r="16" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
@@ -5431,12 +5481,12 @@
       <c r="Q16" s="79"/>
       <c r="R16" s="79"/>
       <c r="S16" s="11"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="42"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="45"/>
     </row>
     <row r="17" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -5449,25 +5499,25 @@
       <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="47"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="49"/>
     </row>
     <row r="18" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
@@ -5478,25 +5528,25 @@
       <c r="F18" s="6">
         <v>2</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="40"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="44"/>
     </row>
     <row r="19" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -5507,25 +5557,25 @@
       <c r="F19" s="6">
         <v>3</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="40"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="44"/>
     </row>
     <row r="20" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
@@ -5536,25 +5586,25 @@
       <c r="F20" s="7">
         <v>4</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
       <c r="S20" s="13"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="42"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="45"/>
     </row>
     <row r="21" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -5567,25 +5617,25 @@
       <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
       <c r="S21" s="14"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="47"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="49"/>
     </row>
     <row r="22" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
@@ -5596,25 +5646,25 @@
       <c r="F22" s="6">
         <v>2</v>
       </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="40"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="44"/>
     </row>
     <row r="23" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
@@ -5625,25 +5675,25 @@
       <c r="F23" s="6">
         <v>3</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="40"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="44"/>
     </row>
     <row r="24" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
@@ -5654,25 +5704,25 @@
       <c r="F24" s="7">
         <v>4</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="42"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="45"/>
     </row>
     <row r="25" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
@@ -5685,25 +5735,25 @@
       <c r="F25" s="5">
         <v>5</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
       <c r="S25" s="14"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="47"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="49"/>
     </row>
     <row r="26" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
@@ -5714,25 +5764,25 @@
       <c r="F26" s="6">
         <v>6</v>
       </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="40"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="44"/>
     </row>
     <row r="27" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
@@ -5743,25 +5793,25 @@
       <c r="F27" s="6">
         <v>7</v>
       </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="40"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="44"/>
     </row>
     <row r="28" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
@@ -5772,25 +5822,25 @@
       <c r="F28" s="7">
         <v>8</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="42"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="45"/>
     </row>
     <row r="29" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -5818,256 +5868,256 @@
       <c r="Y29" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="45"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="48"/>
       <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="38"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="43"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="32"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="37"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="32"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="37"/>
     </row>
     <row r="35" spans="1:25" ht="91.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="37"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="37"/>
     </row>
     <row r="37" spans="1:25" ht="127.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="32"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="37"/>
     </row>
     <row r="39" spans="1:25" ht="67.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="34"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="63">
